--- a/rmse by month.xlsx
+++ b/rmse by month.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Month</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>September</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>ST MTL</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,9 +438,10 @@
     <col min="2" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +460,14 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -473,8 +486,14 @@
       <c r="F2">
         <v>142.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>95.25</v>
+      </c>
+      <c r="H2">
+        <v>93.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -493,8 +512,14 @@
       <c r="F3">
         <v>140.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>94.58</v>
+      </c>
+      <c r="H3">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -513,8 +538,14 @@
       <c r="F4">
         <v>144.66999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>89.83</v>
+      </c>
+      <c r="H4">
+        <v>92.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -533,8 +564,14 @@
       <c r="F5">
         <v>137.66999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>90.22</v>
+      </c>
+      <c r="H5">
+        <v>87.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -552,6 +589,12 @@
       </c>
       <c r="F6">
         <v>127.03</v>
+      </c>
+      <c r="G6">
+        <v>90.93</v>
+      </c>
+      <c r="H6">
+        <v>83.75</v>
       </c>
     </row>
   </sheetData>
